--- a/Feb'2021/01.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/01.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -600,13 +600,13 @@
     <t>1%Less</t>
   </si>
   <si>
-    <t>Date :01-02-2021</t>
-  </si>
-  <si>
     <t>01.02.2021</t>
   </si>
   <si>
     <t>Date:01.02.2021</t>
+  </si>
+  <si>
+    <t>Date :02-02-2021</t>
   </si>
 </sst>
 </file>
@@ -2245,6 +2245,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,12 +2267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2819,46 +2819,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="237" t="s">
@@ -2888,34 +2888,34 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="233" t="s">
+      <c r="D4" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="233" t="s">
+      <c r="E4" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="233" t="s">
+      <c r="G4" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="233" t="s">
+      <c r="H4" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="233" t="s">
+      <c r="I4" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="233" t="s">
+      <c r="J4" s="227" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="240" t="s">
@@ -2946,16 +2946,16 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="230"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
       <c r="K5" s="241"/>
       <c r="L5" s="243"/>
       <c r="M5" s="245"/>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="6" spans="1:24" s="105" customFormat="1">
       <c r="A6" s="215" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="216"/>
       <c r="C6" s="217"/>
@@ -5775,6 +5775,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -5791,9 +5794,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="51">
         <v>380000</v>
@@ -7790,7 +7790,7 @@
         <v>1120</v>
       </c>
       <c r="C6" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -7801,7 +7801,7 @@
         <v>14263</v>
       </c>
       <c r="C7" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -7836,7 +7836,7 @@
         <v>21745</v>
       </c>
       <c r="C10" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10">
         <f>F8+F9</f>
@@ -7863,7 +7863,7 @@
         <v>1000</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12">
         <f>F10-F11</f>
@@ -7878,7 +7878,7 @@
         <v>2225</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -7900,7 +7900,7 @@
         <v>1603</v>
       </c>
       <c r="C15" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -7953,7 +7953,7 @@
         <v>200</v>
       </c>
       <c r="C20" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
@@ -7964,7 +7964,7 @@
         <v>1150</v>
       </c>
       <c r="C21" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -8008,7 +8008,7 @@
         <v>3275</v>
       </c>
       <c r="C25" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -8045,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75">
       <c r="A2" s="263" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="264"/>
       <c r="C2" s="264"/>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="I11" s="139"/>
       <c r="J11" s="136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K11" s="135" t="s">
         <v>76</v>
@@ -8501,8 +8501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="5" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="275" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B5" s="276"/>
       <c r="C5" s="275" t="s">

--- a/Feb'2021/01.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/01.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2245,6 +2245,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2300,18 +2312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2819,67 +2819,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="239"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="243"/>
       <c r="S3" s="99"/>
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
@@ -2888,52 +2888,52 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="227" t="s">
+      <c r="D4" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="227" t="s">
+      <c r="F4" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="227" t="s">
+      <c r="G4" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="227" t="s">
+      <c r="H4" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="227" t="s">
+      <c r="I4" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="227" t="s">
+      <c r="J4" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="240" t="s">
+      <c r="K4" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="242" t="s">
+      <c r="L4" s="246" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="244" t="s">
+      <c r="M4" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="246" t="s">
+      <c r="N4" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="248" t="s">
+      <c r="O4" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="235" t="s">
+      <c r="P4" s="239" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="206" t="s">
@@ -2946,22 +2946,22 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="232"/>
-      <c r="B5" s="234"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="245"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="236"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="245"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="240"/>
       <c r="Q5" s="207" t="s">
         <v>36</v>
       </c>
@@ -5775,12 +5775,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -5794,6 +5788,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7736,8 +7736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8501,7 +8501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>

--- a/Feb'2021/01.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/01.02.2021/Bank Statement.xlsx
@@ -2245,6 +2245,63 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,63 +2312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2819,67 +2819,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="234"/>
-      <c r="Q2" s="234"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="243"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="239"/>
       <c r="S3" s="99"/>
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
@@ -2888,52 +2888,52 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="237" t="s">
+      <c r="B4" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="231" t="s">
+      <c r="F4" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="231" t="s">
+      <c r="I4" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="231" t="s">
+      <c r="J4" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="244" t="s">
+      <c r="K4" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="246" t="s">
+      <c r="L4" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="248" t="s">
+      <c r="M4" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="227" t="s">
+      <c r="N4" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="229" t="s">
+      <c r="O4" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="239" t="s">
+      <c r="P4" s="235" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="206" t="s">
@@ -2946,22 +2946,22 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="236"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="232"/>
-      <c r="K5" s="245"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="240"/>
+      <c r="A5" s="230"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="234"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="245"/>
+      <c r="N5" s="247"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="236"/>
       <c r="Q5" s="207" t="s">
         <v>36</v>
       </c>
@@ -5775,6 +5775,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -5791,9 +5794,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7737,7 +7737,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
